--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_22_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1207787.344915073</v>
+        <v>1204030.955205285</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33372278.24812808</v>
+        <v>33372278.24812806</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5915902.834835914</v>
+        <v>5915902.834835916</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4077659.842622423</v>
+        <v>4077659.842622422</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>361.4017747174115</v>
+        <v>408.9851551450807</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>416.3855777583098</v>
       </c>
       <c r="F11" t="n">
-        <v>410.5373356599062</v>
+        <v>410.5373356599064</v>
       </c>
       <c r="G11" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>27.01028645237306</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.602119380601</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.4285649287233</v>
       </c>
       <c r="V11" t="n">
-        <v>345.9393609305336</v>
+        <v>185.1411571632959</v>
       </c>
       <c r="W11" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515045</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.8490128968191</v>
+        <v>176.8490128968193</v>
       </c>
       <c r="C13" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666294</v>
       </c>
       <c r="D13" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355146</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.3326680234897</v>
+        <v>161.8885638628834</v>
       </c>
       <c r="G13" t="n">
-        <v>150.0423489486286</v>
+        <v>150.0423489486288</v>
       </c>
       <c r="H13" t="n">
-        <v>117.9692003794991</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>49.41291406313628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758299</v>
       </c>
       <c r="T13" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206495</v>
       </c>
       <c r="U13" t="n">
-        <v>262.5513459967663</v>
+        <v>262.5513459967665</v>
       </c>
       <c r="V13" t="n">
-        <v>271.0345334132957</v>
+        <v>271.0345334132959</v>
       </c>
       <c r="W13" t="n">
-        <v>256.2547207345933</v>
+        <v>159.9868849937781</v>
       </c>
       <c r="X13" t="n">
-        <v>229.8864174849435</v>
+        <v>229.8864174849437</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>212.0940543440549</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>408.9851551450806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>410.5373356599062</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>382.4562447723396</v>
       </c>
       <c r="H14" t="n">
-        <v>253.9729163065505</v>
+        <v>253.9729163065507</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>27.01028645237306</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.602119380601</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>243.4285649287233</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>345.9393609305338</v>
       </c>
       <c r="W14" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080991</v>
       </c>
       <c r="X14" t="n">
-        <v>401.8996191515043</v>
+        <v>61.67299963220879</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.340041626332509</v>
+        <v>391.1518428283651</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.8490128968191</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666294</v>
       </c>
       <c r="D16" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355146</v>
       </c>
       <c r="E16" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767922</v>
       </c>
       <c r="F16" t="n">
-        <v>155.8233045480387</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.5338855112248</v>
       </c>
       <c r="H16" t="n">
-        <v>117.9692003794991</v>
+        <v>117.9692003794993</v>
       </c>
       <c r="I16" t="n">
-        <v>49.41291406313628</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758299</v>
       </c>
       <c r="T16" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206495</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.5513459967665</v>
       </c>
       <c r="V16" t="n">
-        <v>271.0345334132957</v>
+        <v>271.0345334132959</v>
       </c>
       <c r="W16" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345934</v>
       </c>
       <c r="X16" t="n">
-        <v>229.8864174849435</v>
+        <v>229.8864174849437</v>
       </c>
       <c r="Y16" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440549</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>408.9851551450806</v>
+        <v>228.4777323968925</v>
       </c>
       <c r="C17" t="n">
-        <v>420.7096284534328</v>
+        <v>420.709628453433</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>418.499267342322</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>416.3855777583098</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>230.8126731176661</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>253.9729163065505</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.01028645237306</v>
       </c>
       <c r="T17" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080991</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283651</v>
       </c>
     </row>
     <row r="18">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T18" t="n">
         <v>124.8306395731037</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>14.44477937116931</v>
       </c>
       <c r="C19" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666294</v>
       </c>
       <c r="D19" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355146</v>
       </c>
       <c r="E19" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767922</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>161.8885638628834</v>
       </c>
       <c r="G19" t="n">
-        <v>150.0423489486286</v>
+        <v>150.0423489486288</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9692003794991</v>
+        <v>117.9692003794993</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>49.4129140631365</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758299</v>
       </c>
       <c r="T19" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206495</v>
       </c>
       <c r="U19" t="n">
-        <v>262.5513459967663</v>
+        <v>262.5513459967665</v>
       </c>
       <c r="V19" t="n">
-        <v>271.0345334132957</v>
+        <v>271.0345334132959</v>
       </c>
       <c r="W19" t="n">
-        <v>225.7462572971926</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>229.8864174849435</v>
+        <v>229.8864174849437</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440549</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>420.7096284534328</v>
+        <v>408.1384738003658</v>
       </c>
       <c r="D20" t="n">
-        <v>418.4992673423218</v>
+        <v>418.499267342322</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>416.3855777583098</v>
       </c>
       <c r="F20" t="n">
-        <v>342.0115523676939</v>
+        <v>410.5373356599064</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>382.4562447723396</v>
       </c>
       <c r="H20" t="n">
-        <v>253.9729163065505</v>
+        <v>253.9729163065507</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>27.01028645237283</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>243.428564928723</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>387.7554804080989</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.8490128968191</v>
+        <v>176.8490128968193</v>
       </c>
       <c r="C22" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666294</v>
       </c>
       <c r="D22" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355146</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>155.0090040767922</v>
       </c>
       <c r="F22" t="n">
-        <v>16.20781405893508</v>
+        <v>161.8885638628834</v>
       </c>
       <c r="G22" t="n">
-        <v>150.0423489486286</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>49.41291406313628</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758299</v>
       </c>
       <c r="T22" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206495</v>
       </c>
       <c r="U22" t="n">
-        <v>262.5513459967663</v>
+        <v>262.5513459967665</v>
       </c>
       <c r="V22" t="n">
-        <v>271.0345334132957</v>
+        <v>271.0345334132959</v>
       </c>
       <c r="W22" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345934</v>
       </c>
       <c r="X22" t="n">
-        <v>229.8864174849435</v>
+        <v>128.6519266159652</v>
       </c>
       <c r="Y22" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440549</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450807</v>
       </c>
       <c r="C23" t="n">
-        <v>420.7096284534328</v>
+        <v>420.709628453433</v>
       </c>
       <c r="D23" t="n">
-        <v>418.4992673423218</v>
+        <v>418.499267342322</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>416.3855777583098</v>
       </c>
       <c r="F23" t="n">
-        <v>410.5373356599062</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>224.0073927686497</v>
       </c>
       <c r="H23" t="n">
-        <v>253.9729163065505</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>27.01028645237283</v>
+        <v>27.01028645237304</v>
       </c>
       <c r="T23" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515045</v>
       </c>
       <c r="Y23" t="n">
-        <v>170.4324420082643</v>
+        <v>391.1518428283651</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.8490128968191</v>
+        <v>176.8490128968193</v>
       </c>
       <c r="C25" t="n">
-        <v>157.7846747666292</v>
+        <v>157.7846747666294</v>
       </c>
       <c r="D25" t="n">
-        <v>151.1677932355144</v>
+        <v>151.1677932355146</v>
       </c>
       <c r="E25" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767922</v>
       </c>
       <c r="F25" t="n">
-        <v>161.8885638628832</v>
+        <v>161.8885638628834</v>
       </c>
       <c r="G25" t="n">
-        <v>150.0423489486286</v>
+        <v>150.0423489486288</v>
       </c>
       <c r="H25" t="n">
-        <v>117.9692003794991</v>
+        <v>117.9692003794993</v>
       </c>
       <c r="I25" t="n">
-        <v>49.41291406313628</v>
+        <v>49.41291406313649</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9308534758297</v>
+        <v>129.9308534758299</v>
       </c>
       <c r="T25" t="n">
-        <v>226.7733322206493</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
         <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>271.0345334132957</v>
+        <v>271.0345334132959</v>
       </c>
       <c r="W25" t="n">
-        <v>256.2547207345933</v>
+        <v>256.2547207345934</v>
       </c>
       <c r="X25" t="n">
-        <v>229.8864174849435</v>
+        <v>229.8864174849437</v>
       </c>
       <c r="Y25" t="n">
-        <v>212.0940543440547</v>
+        <v>212.0940543440549</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>219.9552145948928</v>
       </c>
       <c r="V26" t="n">
-        <v>295.3220110280584</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2769,7 +2769,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>81.95332138471909</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>110.2774428838891</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>239.8247518556276</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6027656317444</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415287</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735103</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T32" t="n">
-        <v>209.653539015579</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864825</v>
+        <v>80.83778828610893</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.84130526215174</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811448</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108079</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556275</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6027656317441</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415287</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735103</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T35" t="n">
-        <v>209.653539015579</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>81.69866228622344</v>
+        <v>172.5998412330488</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,10 +3429,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3441,7 +3441,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>88.69475966745551</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811442</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>93.47781416967008</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415287</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T38" t="n">
-        <v>209.653539015579</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>128.3640563204304</v>
       </c>
       <c r="W38" t="n">
-        <v>151.3796653155406</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3678,10 +3678,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144772</v>
+        <v>27.35987084644633</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3720,7 +3720,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>208.6195457548102</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>321.520504706412</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415287</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735103</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>342.881375625476</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,22 +3903,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>86.38976318987949</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144772</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>93.47781416967008</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>193.542191559691</v>
       </c>
       <c r="G44" t="n">
-        <v>143.4254984568479</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735103</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864825</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4152,7 +4152,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811442</v>
@@ -4188,19 +4188,19 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>185.0832217507338</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>28.83434871905844</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>848.2101681471827</v>
+        <v>882.4822216683651</v>
       </c>
       <c r="C11" t="n">
-        <v>848.2101681471827</v>
+        <v>882.4822216683651</v>
       </c>
       <c r="D11" t="n">
-        <v>848.2101681471827</v>
+        <v>882.4822216683651</v>
       </c>
       <c r="E11" t="n">
-        <v>848.2101681471827</v>
+        <v>461.8907289832036</v>
       </c>
       <c r="F11" t="n">
-        <v>433.525990712934</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="V11" t="n">
-        <v>2010.893879538107</v>
+        <v>1701.557751260875</v>
       </c>
       <c r="W11" t="n">
-        <v>1619.221677105684</v>
+        <v>1701.557751260875</v>
       </c>
       <c r="X11" t="n">
-        <v>1213.262465841538</v>
+        <v>1295.598539996729</v>
       </c>
       <c r="Y11" t="n">
-        <v>1213.262465841538</v>
+        <v>1295.598539996729</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>791.3576620710733</v>
+        <v>674.3614816637592</v>
       </c>
       <c r="C13" t="n">
-        <v>631.9792027108417</v>
+        <v>514.9830223035274</v>
       </c>
       <c r="D13" t="n">
-        <v>479.284462068908</v>
+        <v>362.2882816615934</v>
       </c>
       <c r="E13" t="n">
-        <v>479.284462068908</v>
+        <v>362.2882816615934</v>
       </c>
       <c r="F13" t="n">
-        <v>367.8373226512416</v>
+        <v>198.764479779893</v>
       </c>
       <c r="G13" t="n">
-        <v>216.2793944203036</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>97.1185859561631</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>106.1122152511379</v>
@@ -5205,19 +5205,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>326.783117436994</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M13" t="n">
-        <v>910.9641928553087</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5232,19 +5232,19 @@
         <v>2000.020319168465</v>
       </c>
       <c r="U13" t="n">
-        <v>1734.816939373752</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V13" t="n">
-        <v>1461.044683400726</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.201531143561</v>
+        <v>1299.441769265595</v>
       </c>
       <c r="X13" t="n">
-        <v>969.9930286335168</v>
+        <v>1067.233266755551</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.9930286335168</v>
+        <v>852.9968482262029</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1141.155560951761</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="C14" t="n">
-        <v>1141.155560951761</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="D14" t="n">
-        <v>718.4290282827494</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="E14" t="n">
-        <v>718.4290282827494</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="F14" t="n">
-        <v>303.7448508485007</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="G14" t="n">
-        <v>303.7448508485007</v>
+        <v>303.7448508485009</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O14" t="n">
         <v>1775.96950697326</v>
@@ -5299,31 +5299,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2134.456460444733</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1888.56902112279</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1539.13532321316</v>
       </c>
       <c r="W14" t="n">
-        <v>1968.655375015314</v>
+        <v>1147.463120780737</v>
       </c>
       <c r="X14" t="n">
-        <v>1562.696163751169</v>
+        <v>1085.167161556284</v>
       </c>
       <c r="Y14" t="n">
-        <v>1554.271879280126</v>
+        <v>690.0642900124803</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.3246233364393</v>
+        <v>755.7566101041673</v>
       </c>
       <c r="C16" t="n">
-        <v>682.9461639762078</v>
+        <v>596.3781507439355</v>
       </c>
       <c r="D16" t="n">
-        <v>530.251423334274</v>
+        <v>443.6834101020016</v>
       </c>
       <c r="E16" t="n">
-        <v>373.6766717415549</v>
+        <v>287.1086585092822</v>
       </c>
       <c r="F16" t="n">
-        <v>216.2793944203036</v>
+        <v>287.1086585092822</v>
       </c>
       <c r="G16" t="n">
-        <v>216.2793944203036</v>
+        <v>166.3673600130955</v>
       </c>
       <c r="H16" t="n">
-        <v>97.11858595616312</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>289.4920009833859</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>831.5726843696448</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1415.75375978796</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1543.252671591849</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1661.018552939611</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T16" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U16" t="n">
-        <v>2000.020319168466</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.24806319544</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W16" t="n">
-        <v>1467.404910938275</v>
+        <v>1202.20153114356</v>
       </c>
       <c r="X16" t="n">
-        <v>1235.196408428231</v>
+        <v>969.9930286335157</v>
       </c>
       <c r="Y16" t="n">
-        <v>1020.959989898883</v>
+        <v>755.7566101041673</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>961.8481857688028</v>
+        <v>1315.483797563162</v>
       </c>
       <c r="C17" t="n">
-        <v>536.8889651087695</v>
+        <v>890.5245769031283</v>
       </c>
       <c r="D17" t="n">
-        <v>536.8889651087695</v>
+        <v>467.7980442341162</v>
       </c>
       <c r="E17" t="n">
-        <v>536.8889651087695</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F17" t="n">
-        <v>536.8889651087695</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>303.7448508485007</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
         <v>118.4065018001353</v>
@@ -5521,7 +5521,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,31 +5536,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T17" t="n">
-        <v>2161.739578073393</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U17" t="n">
-        <v>2161.739578073393</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="V17" t="n">
-        <v>2161.739578073393</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="W17" t="n">
-        <v>1770.06737564097</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="X17" t="n">
-        <v>1770.06737564097</v>
+        <v>1941.372257386654</v>
       </c>
       <c r="Y17" t="n">
-        <v>1374.964504097167</v>
+        <v>1546.269385842851</v>
       </c>
     </row>
     <row r="18">
@@ -5588,7 +5588,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5597,13 +5597,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987882</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5615,7 +5615,7 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>1614.94766180768</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
         <v>1676.651116233592</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>786.5732398389177</v>
+        <v>1000.009076127828</v>
       </c>
       <c r="C19" t="n">
-        <v>627.1947804786862</v>
+        <v>840.6306167675962</v>
       </c>
       <c r="D19" t="n">
-        <v>474.5000398367524</v>
+        <v>687.9358761256622</v>
       </c>
       <c r="E19" t="n">
-        <v>317.9252882440333</v>
+        <v>531.3611245329428</v>
       </c>
       <c r="F19" t="n">
-        <v>317.9252882440333</v>
+        <v>367.8373226512423</v>
       </c>
       <c r="G19" t="n">
-        <v>166.3673600130953</v>
+        <v>216.2793944203041</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895475</v>
+        <v>97.11858595616333</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>419.8232506543501</v>
+        <v>767.3301446246915</v>
       </c>
       <c r="M19" t="n">
-        <v>550.4276429928797</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954414</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P19" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T19" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.816939373753</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.044683400727</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W19" t="n">
-        <v>1233.01816087831</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="X19" t="n">
-        <v>1000.809658368266</v>
+        <v>1228.836180890681</v>
       </c>
       <c r="Y19" t="n">
-        <v>786.5732398389177</v>
+        <v>1014.599762361332</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1496.896818690368</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="C20" t="n">
-        <v>1071.937598030335</v>
+        <v>1948.066492800903</v>
       </c>
       <c r="D20" t="n">
-        <v>649.2110653613229</v>
+        <v>1525.339960131891</v>
       </c>
       <c r="E20" t="n">
-        <v>649.2110653613229</v>
+        <v>1104.748467446729</v>
       </c>
       <c r="F20" t="n">
-        <v>303.7448508485007</v>
+        <v>690.0642900124803</v>
       </c>
       <c r="G20" t="n">
-        <v>303.7448508485007</v>
+        <v>303.7448508485009</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2333.044459819078</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2134.456460444734</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1888.569021122791</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>1888.569021122791</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>1496.896818690368</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X20" t="n">
-        <v>1496.896818690368</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y20" t="n">
-        <v>1496.896818690368</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043032</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>577.121243541726</v>
+        <v>679.3783050255402</v>
       </c>
       <c r="C22" t="n">
-        <v>417.7427841814945</v>
+        <v>519.9998456653085</v>
       </c>
       <c r="D22" t="n">
-        <v>265.0480435395608</v>
+        <v>367.3051050233746</v>
       </c>
       <c r="E22" t="n">
-        <v>265.0480435395608</v>
+        <v>210.7303534306552</v>
       </c>
       <c r="F22" t="n">
-        <v>248.6765141871011</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G22" t="n">
-        <v>97.11858595616312</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H22" t="n">
-        <v>97.11858595616312</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898317</v>
+        <v>358.0754347909399</v>
       </c>
       <c r="L22" t="n">
-        <v>862.0820538119947</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M22" t="n">
-        <v>992.6864461505241</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N22" t="n">
-        <v>1120.185357954414</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2229.084291108516</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T22" t="n">
-        <v>2000.020319168466</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.816939373753</v>
+        <v>1734.816939373751</v>
       </c>
       <c r="V22" t="n">
-        <v>1461.044683400727</v>
+        <v>1461.044683400725</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.201531143562</v>
+        <v>1202.20153114356</v>
       </c>
       <c r="X22" t="n">
-        <v>969.9930286335177</v>
+        <v>1072.250090117332</v>
       </c>
       <c r="Y22" t="n">
-        <v>755.7566101041696</v>
+        <v>858.0136715879839</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1574.745145542123</v>
+        <v>1550.384255199197</v>
       </c>
       <c r="C23" t="n">
-        <v>1149.78592488209</v>
+        <v>1125.425034539164</v>
       </c>
       <c r="D23" t="n">
-        <v>727.0593922130781</v>
+        <v>702.6985018701516</v>
       </c>
       <c r="E23" t="n">
-        <v>727.0593922130781</v>
+        <v>282.1070091849902</v>
       </c>
       <c r="F23" t="n">
-        <v>312.3752147788293</v>
+        <v>282.1070091849902</v>
       </c>
       <c r="G23" t="n">
-        <v>312.3752147788293</v>
+        <v>55.8369154792834</v>
       </c>
       <c r="H23" t="n">
-        <v>55.83691547928333</v>
+        <v>55.8369154792834</v>
       </c>
       <c r="I23" t="n">
         <v>127.036865730464</v>
       </c>
       <c r="J23" t="n">
-        <v>284.6836409739093</v>
+        <v>707.5714735600136</v>
       </c>
       <c r="K23" t="n">
-        <v>520.9552913531302</v>
+        <v>943.8431239392345</v>
       </c>
       <c r="L23" t="n">
-        <v>814.0711662170309</v>
+        <v>1236.958998803135</v>
       </c>
       <c r="M23" t="n">
-        <v>1140.219054385818</v>
+        <v>1563.106886971923</v>
       </c>
       <c r="N23" t="n">
-        <v>1471.644356362296</v>
+        <v>1894.5321889484</v>
       </c>
       <c r="O23" t="n">
-        <v>1784.599870903588</v>
+        <v>2207.487703489693</v>
       </c>
       <c r="P23" t="n">
-        <v>2051.700162082857</v>
+        <v>2474.587994668962</v>
       </c>
       <c r="Q23" t="n">
-        <v>2506.015124926969</v>
+        <v>2675.169189680029</v>
       </c>
       <c r="R23" t="n">
-        <v>2791.845773964167</v>
+        <v>2791.84577396417</v>
       </c>
       <c r="S23" t="n">
-        <v>2764.562656335507</v>
+        <v>2764.56265633551</v>
       </c>
       <c r="T23" t="n">
-        <v>2565.974656961163</v>
+        <v>2764.56265633551</v>
       </c>
       <c r="U23" t="n">
-        <v>2565.974656961163</v>
+        <v>2764.56265633551</v>
       </c>
       <c r="V23" t="n">
-        <v>2565.974656961163</v>
+        <v>2764.56265633551</v>
       </c>
       <c r="W23" t="n">
-        <v>2565.974656961163</v>
+        <v>2764.56265633551</v>
       </c>
       <c r="X23" t="n">
-        <v>2160.015445697017</v>
+        <v>2358.603445071365</v>
       </c>
       <c r="Y23" t="n">
-        <v>1987.861463870488</v>
+        <v>1963.500573527561</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>551.2016689967194</v>
+        <v>551.2016689967195</v>
       </c>
       <c r="C24" t="n">
-        <v>444.7452078333616</v>
+        <v>444.7452078333617</v>
       </c>
       <c r="D24" t="n">
-        <v>349.6549189799149</v>
+        <v>349.654918979915</v>
       </c>
       <c r="E24" t="n">
-        <v>255.5345043068686</v>
+        <v>255.5345043068687</v>
       </c>
       <c r="F24" t="n">
-        <v>172.1506659230302</v>
+        <v>172.1506659230303</v>
       </c>
       <c r="G24" t="n">
-        <v>87.77956551268709</v>
+        <v>87.77956551268716</v>
       </c>
       <c r="H24" t="n">
-        <v>55.83691547928333</v>
+        <v>55.8369154792834</v>
       </c>
       <c r="I24" t="n">
-        <v>90.05365165075899</v>
+        <v>90.05365165075952</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9469909972262</v>
+        <v>183.9469909972267</v>
       </c>
       <c r="K24" t="n">
-        <v>344.4256630513964</v>
+        <v>344.425663051397</v>
       </c>
       <c r="L24" t="n">
-        <v>560.2090419264188</v>
+        <v>560.2090419264192</v>
       </c>
       <c r="M24" t="n">
-        <v>812.0180672291164</v>
+        <v>812.0180672291167</v>
       </c>
       <c r="N24" t="n">
         <v>1070.491728150437</v>
@@ -6089,31 +6089,31 @@
         <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
-        <v>1623.578025738007</v>
+        <v>1623.578025738008</v>
       </c>
       <c r="R24" t="n">
-        <v>1685.28148016392</v>
+        <v>1685.281480163921</v>
       </c>
       <c r="S24" t="n">
         <v>1640.660449563655</v>
       </c>
       <c r="T24" t="n">
-        <v>1514.568894439307</v>
+        <v>1514.568894439308</v>
       </c>
       <c r="U24" t="n">
-        <v>1338.299057263188</v>
+        <v>1338.299057263189</v>
       </c>
       <c r="V24" t="n">
         <v>1139.181539325188</v>
       </c>
       <c r="W24" t="n">
-        <v>953.8587850583817</v>
+        <v>953.858785058382</v>
       </c>
       <c r="X24" t="n">
-        <v>798.9913492972618</v>
+        <v>798.9913492972619</v>
       </c>
       <c r="Y24" t="n">
-        <v>672.5055700764825</v>
+        <v>672.5055700764826</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.639440058155</v>
+        <v>1008.639440058156</v>
       </c>
       <c r="C25" t="n">
-        <v>849.2609806979235</v>
+        <v>849.2609806979249</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5662400559897</v>
+        <v>696.5662400559911</v>
       </c>
       <c r="E25" t="n">
-        <v>539.9914884632706</v>
+        <v>539.9914884632717</v>
       </c>
       <c r="F25" t="n">
-        <v>376.4676865815704</v>
+        <v>376.4676865815711</v>
       </c>
       <c r="G25" t="n">
-        <v>224.9097583506322</v>
+        <v>224.9097583506327</v>
       </c>
       <c r="H25" t="n">
-        <v>105.7489498864917</v>
+        <v>105.748949886492</v>
       </c>
       <c r="I25" t="n">
-        <v>55.83691547928333</v>
+        <v>55.8369154792834</v>
       </c>
       <c r="J25" t="n">
-        <v>201.3222643461563</v>
+        <v>201.3222643461564</v>
       </c>
       <c r="K25" t="n">
-        <v>436.1795532358998</v>
+        <v>572.8808194848502</v>
       </c>
       <c r="L25" t="n">
-        <v>560.0503548541978</v>
+        <v>739.3644739602109</v>
       </c>
       <c r="M25" t="n">
-        <v>1150.13861437364</v>
+        <v>1329.452733479653</v>
       </c>
       <c r="N25" t="n">
-        <v>1719.896329335175</v>
+        <v>1899.210448441188</v>
       </c>
       <c r="O25" t="n">
-        <v>2257.331459908718</v>
+        <v>2436.645579014731</v>
       </c>
       <c r="P25" t="n">
-        <v>2705.607410056743</v>
+        <v>2537.414635192415</v>
       </c>
       <c r="Q25" t="n">
-        <v>2775.374681287399</v>
+        <v>2775.374681287402</v>
       </c>
       <c r="R25" t="n">
-        <v>2791.845773964167</v>
+        <v>2791.84577396417</v>
       </c>
       <c r="S25" t="n">
-        <v>2660.602487624945</v>
+        <v>2660.602487624948</v>
       </c>
       <c r="T25" t="n">
-        <v>2431.538515684895</v>
+        <v>2431.538515684898</v>
       </c>
       <c r="U25" t="n">
-        <v>2166.335135890181</v>
+        <v>2166.335135890184</v>
       </c>
       <c r="V25" t="n">
-        <v>1892.562879917155</v>
+        <v>1892.562879917158</v>
       </c>
       <c r="W25" t="n">
-        <v>1633.719727659991</v>
+        <v>1633.719727659993</v>
       </c>
       <c r="X25" t="n">
-        <v>1401.511225149947</v>
+        <v>1401.511225149949</v>
       </c>
       <c r="Y25" t="n">
-        <v>1187.274806620599</v>
+        <v>1187.2748066206</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1203.646414013182</v>
+        <v>498.0150777315366</v>
       </c>
       <c r="C26" t="n">
-        <v>765.503941196605</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="D26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="E26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="F26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G26" t="n">
-        <v>329.5941563710495</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H26" t="n">
         <v>59.87260491495994</v>
@@ -6226,28 +6226,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7193304095859</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>524.9909807888068</v>
+        <v>976.4735309700047</v>
       </c>
       <c r="L26" t="n">
-        <v>818.1068556527075</v>
+        <v>1269.589405833905</v>
       </c>
       <c r="M26" t="n">
-        <v>1144.254743821495</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N26" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O26" t="n">
-        <v>1788.635560339265</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P26" t="n">
-        <v>2529.559046161894</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q26" t="n">
-        <v>2730.140241172962</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R26" t="n">
         <v>2993.630245747997</v>
@@ -6259,19 +6259,19 @@
         <v>2741.392624431906</v>
       </c>
       <c r="U26" t="n">
-        <v>2741.392624431906</v>
+        <v>2519.215639992621</v>
       </c>
       <c r="V26" t="n">
-        <v>2443.087562787403</v>
+        <v>2156.598689926447</v>
       </c>
       <c r="W26" t="n">
-        <v>2038.232108198436</v>
+        <v>1751.74323533748</v>
       </c>
       <c r="X26" t="n">
-        <v>2038.232108198436</v>
+        <v>1332.600771916791</v>
       </c>
       <c r="Y26" t="n">
-        <v>1629.945984498089</v>
+        <v>924.3146482164444</v>
       </c>
     </row>
     <row r="27">
@@ -6308,13 +6308,13 @@
         <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>348.461352487073</v>
+        <v>348.4613524870735</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620954</v>
+        <v>564.2447313620959</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647929</v>
+        <v>816.0537566647932</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6363,19 +6363,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C28" t="n">
-        <v>932.3961830728608</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
-        <v>766.5181902743836</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251208</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868771</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G28" t="n">
-        <v>255.3119520993955</v>
+        <v>255.3119520993959</v>
       </c>
       <c r="H28" t="n">
         <v>122.9678914787119</v>
@@ -6396,13 +6396,13 @@
         <v>1622.505766661538</v>
       </c>
       <c r="N28" t="n">
-        <v>1753.488026254673</v>
+        <v>2192.263481623072</v>
       </c>
       <c r="O28" t="n">
-        <v>2290.923156828216</v>
+        <v>2729.698612196616</v>
       </c>
       <c r="P28" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.159153071229</v>
@@ -6411,25 +6411,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2849.203707252231</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T28" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2328.56985120438</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V28" t="n">
         <v>2041.614343074811</v>
       </c>
       <c r="W28" t="n">
-        <v>1769.587938661102</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X28" t="n">
         <v>1524.196183994515</v>
       </c>
       <c r="Y28" t="n">
-        <v>1296.776513308623</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1274.26294898165</v>
+        <v>2036.923850175409</v>
       </c>
       <c r="C29" t="n">
-        <v>1274.26294898165</v>
+        <v>1598.781377358833</v>
       </c>
       <c r="D29" t="n">
         <v>1162.871592533277</v>
@@ -6463,28 +6463,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>369.0136545322788</v>
+        <v>288.7193304095859</v>
       </c>
       <c r="K29" t="n">
-        <v>605.2853049114998</v>
+        <v>524.9909807888068</v>
       </c>
       <c r="L29" t="n">
-        <v>898.4011797754006</v>
+        <v>818.1068556527075</v>
       </c>
       <c r="M29" t="n">
-        <v>1224.549067944188</v>
+        <v>1144.254743821495</v>
       </c>
       <c r="N29" t="n">
-        <v>1555.974369920665</v>
+        <v>1475.680045797972</v>
       </c>
       <c r="O29" t="n">
-        <v>1868.929884461958</v>
+        <v>1788.635560339265</v>
       </c>
       <c r="P29" t="n">
-        <v>2136.030175641227</v>
+        <v>2055.735851518534</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
@@ -6505,10 +6505,10 @@
         <v>2119.704982887247</v>
       </c>
       <c r="X29" t="n">
-        <v>1700.562519466558</v>
+        <v>2119.704982887247</v>
       </c>
       <c r="Y29" t="n">
-        <v>1700.562519466558</v>
+        <v>2119.704982887247</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1104.957894589636</v>
+        <v>1104.957894589637</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728613</v>
+        <v>932.3961830728618</v>
       </c>
       <c r="D31" t="n">
-        <v>766.5181902743841</v>
+        <v>766.5181902743843</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251216</v>
       </c>
       <c r="F31" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868779</v>
       </c>
       <c r="G31" t="n">
-        <v>255.311952099396</v>
+        <v>255.3119520993963</v>
       </c>
       <c r="H31" t="n">
         <v>122.9678914787119</v>
@@ -6624,22 +6624,22 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847013</v>
+        <v>490.3368237558369</v>
       </c>
       <c r="L31" t="n">
-        <v>593.6420517736962</v>
+        <v>1032.417507142096</v>
       </c>
       <c r="M31" t="n">
-        <v>1183.730311293139</v>
+        <v>1622.505766661538</v>
       </c>
       <c r="N31" t="n">
-        <v>1753.488026254673</v>
+        <v>2192.263481623072</v>
       </c>
       <c r="O31" t="n">
-        <v>2290.923156828216</v>
+        <v>2729.698612196616</v>
       </c>
       <c r="P31" t="n">
-        <v>2739.199106976242</v>
+        <v>2830.467668374299</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6657,13 +6657,13 @@
         <v>2328.569851204381</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.614343074811</v>
+        <v>2041.614343074812</v>
       </c>
       <c r="W31" t="n">
         <v>1769.587938661103</v>
       </c>
       <c r="X31" t="n">
-        <v>1524.196183994515</v>
+        <v>1524.196183994516</v>
       </c>
       <c r="Y31" t="n">
         <v>1296.776513308624</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2031.016534924497</v>
+        <v>2036.923850175409</v>
       </c>
       <c r="C32" t="n">
-        <v>1592.874062107921</v>
+        <v>1598.781377358833</v>
       </c>
       <c r="D32" t="n">
-        <v>1156.964277282365</v>
+        <v>1162.871592533277</v>
       </c>
       <c r="E32" t="n">
-        <v>1156.964277282365</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="F32" t="n">
-        <v>729.0968476915725</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G32" t="n">
-        <v>329.5941563710496</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095859</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>605.2853049114998</v>
+        <v>976.4735309700047</v>
       </c>
       <c r="L32" t="n">
-        <v>898.4011797754006</v>
+        <v>1269.589405833905</v>
       </c>
       <c r="M32" t="n">
-        <v>1224.549067944188</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N32" t="n">
-        <v>1555.974369920665</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O32" t="n">
-        <v>1868.929884461958</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P32" t="n">
-        <v>2136.030175641227</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,22 +6730,22 @@
         <v>2953.163875962794</v>
       </c>
       <c r="T32" t="n">
-        <v>2741.392624431906</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U32" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V32" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W32" t="n">
-        <v>2482.32193295342</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X32" t="n">
-        <v>2063.179469532731</v>
+        <v>2871.509544360664</v>
       </c>
       <c r="Y32" t="n">
-        <v>2031.016534924497</v>
+        <v>2463.223420660317</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>94.08934108643561</v>
+        <v>94.08934108643606</v>
       </c>
       <c r="J33" t="n">
         <v>187.9826804329028</v>
@@ -6837,19 +6837,19 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728615</v>
+        <v>932.3961830728608</v>
       </c>
       <c r="D34" t="n">
-        <v>766.5181902743843</v>
+        <v>766.5181902743836</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251215</v>
+        <v>596.7601865251208</v>
       </c>
       <c r="F34" t="n">
-        <v>420.0531324868778</v>
+        <v>420.0531324868771</v>
       </c>
       <c r="G34" t="n">
-        <v>255.3119520993964</v>
+        <v>255.3119520993955</v>
       </c>
       <c r="H34" t="n">
         <v>122.9678914787119</v>
@@ -6861,22 +6861,22 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K34" t="n">
-        <v>469.7712501553981</v>
+        <v>219.7541432517689</v>
       </c>
       <c r="L34" t="n">
-        <v>593.6420517736962</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M34" t="n">
-        <v>1183.730311293139</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N34" t="n">
-        <v>1753.488026254673</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O34" t="n">
-        <v>2290.923156828216</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P34" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6885,25 +6885,25 @@
         <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2849.203707252232</v>
+        <v>2849.203707252231</v>
       </c>
       <c r="T34" t="n">
         <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2328.569851204381</v>
+        <v>2328.56985120438</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.614343074812</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.587938661103</v>
+        <v>1769.587938661102</v>
       </c>
       <c r="X34" t="n">
-        <v>1524.196183994516</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1296.776513308624</v>
+        <v>1296.776513308623</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1190.980360647177</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C35" t="n">
-        <v>752.8378878305999</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D35" t="n">
-        <v>316.9281030050444</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050444</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050444</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G35" t="n">
-        <v>316.9281030050444</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M35" t="n">
         <v>1131.58869045549</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2108.089956131647</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V35" t="n">
-        <v>2108.089956131647</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W35" t="n">
-        <v>2108.089956131647</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X35" t="n">
-        <v>2025.566054832431</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="Y35" t="n">
-        <v>1617.279931132085</v>
+        <v>1782.900983623584</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7031,7 +7031,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
         <v>1488.088567599445</v>
@@ -7071,52 +7071,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>713.9024503859703</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C37" t="n">
-        <v>541.3407388691952</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D37" t="n">
-        <v>541.3407388691952</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E37" t="n">
-        <v>541.3407388691952</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F37" t="n">
-        <v>364.6336848309514</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G37" t="n">
-        <v>199.8925044434698</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H37" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L37" t="n">
-        <v>326.7831174369941</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M37" t="n">
-        <v>910.964192855309</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N37" t="n">
-        <v>1480.721907816843</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O37" t="n">
-        <v>2018.157038390387</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
@@ -7137,10 +7137,10 @@
         <v>1378.532494457437</v>
       </c>
       <c r="X37" t="n">
-        <v>1133.140739790849</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.7210691049575</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1150.205539167272</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C38" t="n">
-        <v>1150.205539167272</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>1150.205539167272</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255673</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255673</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050444</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
         <v>1131.58869045549</v>
@@ -7195,31 +7195,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.55632591685</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.55632591685</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="W38" t="n">
-        <v>1995.647573072869</v>
+        <v>2190.200544712604</v>
       </c>
       <c r="X38" t="n">
-        <v>1576.50510965218</v>
+        <v>1771.058081291915</v>
       </c>
       <c r="Y38" t="n">
-        <v>1576.50510965218</v>
+        <v>1771.058081291915</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7268,13 +7268,13 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R39" t="n">
         <v>1676.651116233592</v>
@@ -7308,43 +7308,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>919.7301297068562</v>
+        <v>758.6107344189465</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>586.0490229021715</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>416.2910191529087</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>239.5839651146649</v>
       </c>
       <c r="G40" t="n">
-        <v>242.6458987333908</v>
+        <v>74.84278472718336</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>295.9524490360522</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L40" t="n">
-        <v>419.8232506543501</v>
+        <v>862.0820538119942</v>
       </c>
       <c r="M40" t="n">
-        <v>550.4276429928797</v>
+        <v>992.6864461505237</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954414</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O40" t="n">
         <v>1657.620488527957</v>
@@ -7353,31 +7353,31 @@
         <v>2105.896438675982</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1628.966907506139</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W40" t="n">
-        <v>1356.940503092431</v>
+        <v>1423.240778490413</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.548748425843</v>
+        <v>1177.849023823826</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.548748425843</v>
+        <v>950.4293531379337</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1069.56371916797</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="C41" t="n">
-        <v>1069.56371916797</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="D41" t="n">
-        <v>744.7955325958367</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E41" t="n">
-        <v>744.7955325958367</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>316.9281030050444</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050444</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
@@ -7432,31 +7432,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="W41" t="n">
-        <v>1915.005753073567</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="X41" t="n">
-        <v>1495.863289652878</v>
+        <v>2013.98275358362</v>
       </c>
       <c r="Y41" t="n">
-        <v>1495.863289652878</v>
+        <v>2013.98275358362</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.3166270668975</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210677</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C43" t="n">
-        <v>443.520053268367</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D43" t="n">
-        <v>356.2576662078826</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E43" t="n">
-        <v>356.2576662078826</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F43" t="n">
-        <v>179.5506121696388</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G43" t="n">
-        <v>179.5506121696388</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
@@ -7572,13 +7572,13 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>289.492000983386</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L43" t="n">
-        <v>413.3628026016839</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M43" t="n">
-        <v>970.0968922186605</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
         <v>1539.854607180195</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>2121.479004437153</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1843.092372485896</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1556.136864356327</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>1284.110459942618</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1066.13305005659</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="C44" t="n">
-        <v>627.9905772400133</v>
+        <v>1078.11619088664</v>
       </c>
       <c r="D44" t="n">
-        <v>192.0807924144577</v>
+        <v>642.2064060610846</v>
       </c>
       <c r="E44" t="n">
-        <v>192.0807924144577</v>
+        <v>642.2064060610846</v>
       </c>
       <c r="F44" t="n">
-        <v>192.0807924144577</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G44" t="n">
         <v>47.20655154895474</v>
@@ -7645,7 +7645,7 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J44" t="n">
         <v>276.0532770435807</v>
@@ -7669,7 +7669,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.718744241845</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y44" t="n">
-        <v>1492.432620541498</v>
+        <v>1078.11619088664</v>
       </c>
     </row>
     <row r="45">
@@ -7742,7 +7742,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
         <v>1488.088567599445</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>959.9477806029472</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C46" t="n">
-        <v>787.3860690861721</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D46" t="n">
-        <v>621.5080762876948</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E46" t="n">
-        <v>451.7500725384321</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F46" t="n">
-        <v>275.0430185001883</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7806,22 +7806,22 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L46" t="n">
-        <v>767.3301446246915</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M46" t="n">
-        <v>897.9345369632209</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.692251924755</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
         <v>2105.896438675982</v>
@@ -7836,22 +7836,22 @@
         <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>2028.948289708806</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.311674774552</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X46" t="n">
-        <v>1379.186070007826</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y46" t="n">
-        <v>1151.766399321934</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
   </sheetData>
@@ -8853,22 +8853,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N13" t="n">
-        <v>82.54773060122693</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,22 +9087,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P16" t="n">
-        <v>347.584676321907</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9321,13 +9321,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>93.97993254278396</v>
+        <v>80.00897722411321</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821538</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>156.7304232042866</v>
       </c>
       <c r="L22" t="n">
-        <v>263.1722038422879</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>427.1594268546507</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>256.2967351848934</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,10 +9798,10 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>139.4517053759448</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>43.04328571420479</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,10 +9813,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>16.39178053361616</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>478.6092875185459</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>148.2963841322166</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10044,16 +10044,16 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>3.518533120449547</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>77.7012257235092</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>81.10537790171009</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>545.8002937490523</v>
+        <v>456.0429799810081</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,10 +10272,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>256.7604858289868</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>77.7012257235092</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>81.10537790171009</v>
+        <v>16.39178053361616</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,10 +10509,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>256.7604858289868</v>
+        <v>4.217953603098636</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>156.730423204287</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>6.525705103703274</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>175.7179764032068</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
@@ -11220,16 +11220,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>430.4340376549972</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -11454,25 +11454,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>167.4632046631937</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.58338042766911</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>420.7096284534328</v>
+        <v>420.709628453433</v>
       </c>
       <c r="D11" t="n">
-        <v>418.4992673423218</v>
+        <v>418.499267342322</v>
       </c>
       <c r="E11" t="n">
-        <v>416.3855777583096</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>382.4562447723396</v>
       </c>
       <c r="H11" t="n">
-        <v>253.9729163065505</v>
+        <v>253.9729163065507</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>27.01028645237285</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>243.428564928723</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>160.7982037672379</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>387.7554804080991</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283651</v>
       </c>
     </row>
     <row r="12">
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>155.009004076792</v>
+        <v>155.0090040767922</v>
       </c>
       <c r="F13" t="n">
-        <v>51.55589583939347</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.9692003794993</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.4129140631365</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>96.26783574081537</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>212.0940543440547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>408.9851551450807</v>
       </c>
       <c r="C14" t="n">
-        <v>420.7096284534328</v>
+        <v>420.709628453433</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.499267342322</v>
       </c>
       <c r="E14" t="n">
-        <v>416.3855777583096</v>
+        <v>416.3855777583098</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.5373356599064</v>
       </c>
       <c r="G14" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>27.01028645237285</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>196.6021193806008</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>243.428564928723</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>345.9393609305336</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>340.2266195192956</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.8118012020325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>176.8490128968193</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.065259314844468</v>
+        <v>161.8885638628834</v>
       </c>
       <c r="G16" t="n">
-        <v>150.0423489486286</v>
+        <v>30.508463437404</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.4129140631365</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>262.5513459967663</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>180.5074227481883</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>418.4992673423218</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>416.3855777583096</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.5373356599062</v>
+        <v>410.5373356599064</v>
       </c>
       <c r="G17" t="n">
-        <v>151.6435716546734</v>
+        <v>382.4562447723396</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065507</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>27.01028645237283</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>196.602119380601</v>
       </c>
       <c r="U17" t="n">
-        <v>243.428564928723</v>
+        <v>243.4285649287233</v>
       </c>
       <c r="V17" t="n">
-        <v>345.9393609305336</v>
+        <v>345.9393609305338</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515045</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.8490128968191</v>
+        <v>162.40423352565</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>161.8885638628832</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>49.41291406313628</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>30.50846343740062</v>
+        <v>256.2547207345934</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>408.9851551450806</v>
+        <v>408.9851551450807</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>12.57115465306714</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>416.3855777583096</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>68.52578329221228</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>382.4562447723395</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>27.01028645237304</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.602119380601</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.4285649287233</v>
       </c>
       <c r="V20" t="n">
-        <v>345.9393609305336</v>
+        <v>345.9393609305338</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080991</v>
       </c>
       <c r="X20" t="n">
-        <v>401.8996191515043</v>
+        <v>401.8996191515045</v>
       </c>
       <c r="Y20" t="n">
-        <v>391.151842828365</v>
+        <v>391.1518428283651</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>155.009004076792</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.6807498039481</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>150.0423489486288</v>
       </c>
       <c r="H22" t="n">
-        <v>117.9692003794991</v>
+        <v>117.9692003794993</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>49.41291406313649</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>101.2344908689785</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>416.3855777583096</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.5373356599064</v>
       </c>
       <c r="G23" t="n">
-        <v>382.4562447723395</v>
+        <v>158.4488520036899</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>253.9729163065507</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,22 +24259,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>196.602119380601</v>
       </c>
       <c r="U23" t="n">
-        <v>243.428564928723</v>
+        <v>243.4285649287233</v>
       </c>
       <c r="V23" t="n">
-        <v>345.9393609305336</v>
+        <v>345.9393609305338</v>
       </c>
       <c r="W23" t="n">
-        <v>387.7554804080989</v>
+        <v>387.7554804080991</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>220.7194008201007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
@@ -24460,7 +24460,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>36.52476996880839</v>
       </c>
       <c r="V26" t="n">
-        <v>63.66876953745333</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>340.0832533953396</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>321.2732440934109</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>334.1132505003735</v>
       </c>
       <c r="Y32" t="n">
-        <v>372.3619572011914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>333.252376500259</v>
+        <v>242.3511975534336</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>42.32586034702172</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>149.4600229502516</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25396,19 +25396,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735103</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>230.6267242450813</v>
       </c>
       <c r="W38" t="n">
-        <v>249.4272347275364</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>103.6607491680309</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>75.46640729346362</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>110.030182270888</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T41" t="n">
-        <v>209.653539015579</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>16.10940494003574</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>77.82944968061304</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811442</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>146.3469376859574</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>230.0465637351934</v>
       </c>
       <c r="G44" t="n">
-        <v>252.0821659504697</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415287</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.653539015579</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>99.00273129754001</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>214.1034884008632</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>303371.3370805355</v>
+        <v>303371.3370805353</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>303371.3370805355</v>
+        <v>303371.3370805352</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>303371.3370805355</v>
+        <v>303371.3370805352</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>303371.3370805355</v>
+        <v>303371.3370805352</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>364577.98873487</v>
+        <v>364577.9887348703</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>287014.7759371955</v>
+        <v>287014.7759371956</v>
       </c>
     </row>
     <row r="15">
@@ -26316,22 +26316,22 @@
         <v>471046.1696008125</v>
       </c>
       <c r="C2" t="n">
-        <v>471046.1696008125</v>
+        <v>471046.1696008124</v>
       </c>
       <c r="D2" t="n">
         <v>471046.1696008124</v>
       </c>
       <c r="E2" t="n">
-        <v>300454.3401403016</v>
+        <v>300454.3401403015</v>
       </c>
       <c r="F2" t="n">
-        <v>300454.3401403017</v>
+        <v>300454.3401403014</v>
       </c>
       <c r="G2" t="n">
-        <v>300454.3401403017</v>
+        <v>300454.3401403014</v>
       </c>
       <c r="H2" t="n">
-        <v>300454.3401403018</v>
+        <v>300454.3401403015</v>
       </c>
       <c r="I2" t="n">
         <v>339490.1010355267</v>
@@ -26343,7 +26343,7 @@
         <v>340425.1047381765</v>
       </c>
       <c r="L2" t="n">
-        <v>340425.1047381765</v>
+        <v>340425.1047381764</v>
       </c>
       <c r="M2" t="n">
         <v>283135.6283414713</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>561576.3366986582</v>
+        <v>561576.3366986581</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28687.43758396135</v>
+        <v>28687.43758396159</v>
       </c>
       <c r="J3" t="n">
-        <v>13198.92408385212</v>
+        <v>13198.92408385191</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>31059.95241910707</v>
+        <v>31059.95241910689</v>
       </c>
       <c r="F4" t="n">
-        <v>31059.95241910709</v>
+        <v>31059.9524191069</v>
       </c>
       <c r="G4" t="n">
-        <v>31059.95241910708</v>
+        <v>31059.9524191069</v>
       </c>
       <c r="H4" t="n">
-        <v>31059.95241910708</v>
+        <v>31059.95241910689</v>
       </c>
       <c r="I4" t="n">
         <v>55465.87713621811</v>
       </c>
       <c r="J4" t="n">
-        <v>55895.1804133346</v>
+        <v>55895.18041333459</v>
       </c>
       <c r="K4" t="n">
         <v>55895.18041333459</v>
       </c>
       <c r="L4" t="n">
-        <v>55895.18041333456</v>
+        <v>55895.18041333458</v>
       </c>
       <c r="M4" t="n">
-        <v>20076.67410129959</v>
+        <v>20076.67410129963</v>
       </c>
       <c r="N4" t="n">
-        <v>20076.6741012996</v>
+        <v>20076.67410129962</v>
       </c>
       <c r="O4" t="n">
-        <v>20076.67410129958</v>
+        <v>20076.67410129963</v>
       </c>
       <c r="P4" t="n">
-        <v>20076.67410129959</v>
+        <v>20076.67410129963</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47148.30100693079</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="F5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="G5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="H5" t="n">
-        <v>47148.30100693081</v>
+        <v>47148.30100693078</v>
       </c>
       <c r="I5" t="n">
-        <v>53707.37759398053</v>
+        <v>53707.37759398056</v>
       </c>
       <c r="J5" t="n">
         <v>55677.28176780177</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-339330.2499843944</v>
+        <v>-339836.0228948416</v>
       </c>
       <c r="F6" t="n">
-        <v>222246.0867142638</v>
+        <v>221740.3138038164</v>
       </c>
       <c r="G6" t="n">
-        <v>222246.0867142638</v>
+        <v>221740.3138038163</v>
       </c>
       <c r="H6" t="n">
-        <v>222246.0867142639</v>
+        <v>221740.3138038164</v>
       </c>
       <c r="I6" t="n">
-        <v>201629.4087213667</v>
+        <v>201232.0684800725</v>
       </c>
       <c r="J6" t="n">
-        <v>215653.7184731881</v>
+        <v>215258.9754644015</v>
       </c>
       <c r="K6" t="n">
-        <v>228852.6425570401</v>
+        <v>228457.8995482535</v>
       </c>
       <c r="L6" t="n">
-        <v>228852.6425570402</v>
+        <v>228457.8995482534</v>
       </c>
       <c r="M6" t="n">
-        <v>109412.4941657369</v>
+        <v>108858.6137225149</v>
       </c>
       <c r="N6" t="n">
-        <v>217007.873030534</v>
+        <v>216453.992587312</v>
       </c>
       <c r="O6" t="n">
-        <v>217007.8730305338</v>
+        <v>216453.992587312</v>
       </c>
       <c r="P6" t="n">
-        <v>217007.8730305338</v>
+        <v>216453.992587312</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26752,7 +26752,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932213</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="H3" t="n">
         <v>466.7019280932213</v>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
-        <v>697.9614434910417</v>
+        <v>697.9614434910425</v>
       </c>
       <c r="J4" t="n">
         <v>748.4075614369992</v>
@@ -26822,10 +26822,10 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>107.8795491291073</v>
+        <v>107.8795491291082</v>
       </c>
       <c r="J4" t="n">
-        <v>50.44611794595755</v>
+        <v>50.44611794595676</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y20" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y22" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y23" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="24">
@@ -29195,28 +29195,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="C25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="D25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="E25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="G25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="H25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="I25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="T25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="U25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="V25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="W25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="X25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
       <c r="Y25" t="n">
-        <v>13.05141963497814</v>
+        <v>13.05141963497793</v>
       </c>
     </row>
     <row r="26">
@@ -31852,7 +31852,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968724</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699062</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125711</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,10 +32244,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816034</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
@@ -32262,10 +32262,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.00384943023825</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,16 +32338,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S18" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,25 +32384,25 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238416</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051978</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998885</v>
@@ -32414,19 +32414,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R19" t="n">
-        <v>37.841110431952</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701868</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562341</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879938</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916734</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562341</v>
@@ -32809,7 +32809,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233626</v>
@@ -33028,7 +33028,7 @@
         <v>94.84175691562341</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415857</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.9630089646691</v>
@@ -33037,7 +33037,7 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811311</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -33496,10 +33496,10 @@
         <v>9.695072128879938</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916735</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562295</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33751,10 +33751,10 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -33988,7 +33988,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -33997,7 +33997,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183765</v>
@@ -34210,10 +34210,10 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415854</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646691</v>
@@ -34392,7 +34392,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>42.75364899065038</v>
@@ -34459,13 +34459,13 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35427,13 +35427,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35570,25 +35570,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N13" t="n">
-        <v>211.3345102011153</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35646,7 +35646,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
@@ -35655,16 +35655,16 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916791</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562325</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P16" t="n">
-        <v>449.3716017539105</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785922</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
         <v>159.2391669125714</v>
@@ -35889,10 +35889,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233554</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>219.1019543794486</v>
+        <v>205.1309990607778</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247773</v>
@@ -36059,13 +36059,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027016</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916724</v>
+        <v>34.56235976916725</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562341</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572665</v>
+        <v>254.5083025654566</v>
       </c>
       <c r="L22" t="n">
-        <v>388.2942256789526</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027016</v>
@@ -36357,13 +36357,13 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>586.3985937672219</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816035</v>
@@ -36378,10 +36378,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>458.9040028728405</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>288.7178273103004</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916734</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q24" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R24" t="n">
         <v>62.32672164233622</v>
@@ -36518,10 +36518,10 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>237.2295847371147</v>
+        <v>375.3116718572666</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>168.1653075508694</v>
       </c>
       <c r="M25" t="n">
         <v>596.0487469893359</v>
@@ -36533,10 +36533,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027016</v>
@@ -36594,13 +36594,13 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>255.0500132399</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816035</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>748.4075614369995</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>266.1515197727626</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,16 +36676,16 @@
         <v>94.84175691562341</v>
       </c>
       <c r="K27" t="n">
-        <v>162.0996687415857</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811311</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36764,16 +36764,16 @@
         <v>596.0487469893358</v>
       </c>
       <c r="N28" t="n">
-        <v>132.305312720338</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485105</v>
+        <v>179.4881511555127</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027016</v>
@@ -36831,13 +36831,13 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J29" t="n">
-        <v>240.3445448142811</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816035</v>
@@ -36852,10 +36852,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>748.4075614369995</v>
+        <v>658.6502476689552</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>59.5006704062456</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116992</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L31" t="n">
-        <v>381.8825076656514</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>596.0487469893358</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37007,10 +37007,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485105</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.36368292423</v>
+        <v>148.1732168655858</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027016</v>
@@ -37068,10 +37068,10 @@
         <v>71.91914166785922</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125711</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>319.7636106079939</v>
+        <v>255.0500132399</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766675</v>
@@ -37089,10 +37089,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916735</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562341</v>
+        <v>94.84175691562295</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37229,10 +37229,10 @@
         <v>59.5006704062456</v>
       </c>
       <c r="K34" t="n">
-        <v>354.5383651901567</v>
+        <v>101.9958329642686</v>
       </c>
       <c r="L34" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
         <v>596.0487469893359</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027016</v>
@@ -37317,7 +37317,7 @@
         <v>329.4423112816035</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37329,7 +37329,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562342</v>
@@ -37399,10 +37399,10 @@
         <v>261.0845059811315</v>
       </c>
       <c r="O36" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N37" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P37" t="n">
-        <v>258.5173486362905</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027016</v>
@@ -37551,7 +37551,7 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562342</v>
@@ -37636,7 +37636,7 @@
         <v>261.0845059811315</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742727</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917234</v>
@@ -37645,7 +37645,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>104.3035844648732</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>300.8399982398714</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247773</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37788,10 +37788,10 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
@@ -37803,7 +37803,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562285</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415854</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646691</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37940,16 +37940,16 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116994</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>562.3576662797743</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
         <v>118.95543570481</v>
@@ -38025,10 +38025,10 @@
         <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O44" t="n">
         <v>316.1166813548411</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,13 +38107,13 @@
         <v>254.3525508108056</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811309</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
@@ -38174,25 +38174,25 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572665</v>
       </c>
       <c r="L46" t="n">
-        <v>292.5852264998583</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>309.1157135712369</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
         <v>240.36368292423</v>
